--- a/class_materials/projects_and_code/movies/movies.xlsx
+++ b/class_materials/projects_and_code/movies/movies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects_and_code/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A16415-FE26-BE44-B566-C4B73BF6F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D9B05-EA46-2D45-AA00-7D67255662AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="500" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
+    <workbookView xWindow="50020" yWindow="360" windowWidth="50020" windowHeight="28300" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$X$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$X$108</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="642">
   <si>
     <t>Tropic Thunder</t>
   </si>
@@ -248,9 +248,6 @@
     <t>An insane hunter arranges for a ship to be wrecked on an island where he can indulge in some sort of hunting and killing of the passengers.</t>
   </si>
   <si>
-    <t>In an ancient age, the peace-loving Hobbits are enslaved by the Java Men, a race of flesh-eating dragon-riders. The young Hobbit Goben must join forces with their neighbor giants, the humans, to free his people and vanquish their enemies.</t>
-  </si>
-  <si>
     <t>When a group of vacationers arrive on Snake Island, they discover hoards of deadly snakes determined to eliminate the trespassers.</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>hulu</t>
   </si>
   <si>
-    <t>hbo</t>
-  </si>
-  <si>
     <t>disney_plus</t>
   </si>
   <si>
@@ -434,9 +428,6 @@
     <t>A U.S. Army officer serving in Vietnam is tasked with assassinating a renegade Special Forces Colonel who sees himself as a god.</t>
   </si>
   <si>
-    <t>Chark, an adventurer, comes to a small village near a diamond miners' camp. He is arrested by the local police who accuse him of having committed a bank robbery in a neighboring town.</t>
-  </si>
-  <si>
     <t>The story of the relationship between Karamakate, an Amazonian shaman and last survivor of his people, and two scientists who work together over the course of forty years to search the Amazon for a sacred healing plant.</t>
   </si>
   <si>
@@ -6751,6 +6742,21 @@
   </si>
   <si>
     <t>anthony hopkins</t>
+  </si>
+  <si>
+    <t>Avatar: The Way of Water</t>
+  </si>
+  <si>
+    <t>Jake Sully lives with his newfound family formed on the extrasolar moon Pandora. Once a familiar threat returns to finish what was previously started, Jake must work with Neytiri and the army of the Na'vi race to protect their home.</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Chark, an adventurer, comes to a small village near a diamond miners' camp. He is arrested by the local police who accuse him of having committed a bank robbery in a neigmaxring town.</t>
+  </si>
+  <si>
+    <t>In an ancient age, the peace-loving Hobbits are enslaved by the Java Men, a race of flesh-eating dragon-riders. The young Hobbit Goben must join forces with their neigmaxr giants, the humans, to free his people and vanquish their enemies.</t>
   </si>
 </sst>
 </file>
@@ -7491,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E5965-5A7E-9F4C-BD42-70F9C5F2FA16}">
-  <dimension ref="A1:X142"/>
+  <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q119" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="V142" sqref="A142:V142"/>
+    <sheetView tabSelected="1" topLeftCell="D53" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7525,82 +7531,82 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>1931</v>
@@ -7608,7 +7614,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -7630,7 +7636,7 @@
     <row r="3" spans="1:24">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>68</v>
@@ -7641,7 +7647,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -7662,13 +7668,13 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D4" s="10">
         <v>1933</v>
@@ -7694,13 +7700,13 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4">
         <v>1933</v>
@@ -7714,7 +7720,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>115</v>
+        <v>639</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -7729,13 +7735,13 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" s="10">
         <v>1934</v>
@@ -7761,13 +7767,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" s="10">
         <v>1941</v>
@@ -7793,13 +7799,13 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" s="10">
         <v>1941</v>
@@ -7825,13 +7831,13 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" s="10">
         <v>1942</v>
@@ -7857,13 +7863,13 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="10">
         <v>1944</v>
@@ -7889,13 +7895,13 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4">
         <v>1945</v>
@@ -7922,13 +7928,13 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D12" s="4">
         <v>1945</v>
@@ -7954,13 +7960,13 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="10">
         <v>1948</v>
@@ -7987,10 +7993,10 @@
     <row r="14" spans="1:24">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4">
         <v>1949</v>
@@ -7998,7 +8004,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -8014,27 +8020,27 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="4">
         <v>1951</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -8045,18 +8051,18 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -8065,10 +8071,10 @@
     <row r="16" spans="1:24">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4">
         <v>1951</v>
@@ -8076,7 +8082,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -8092,20 +8098,20 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V16" s="4"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D17" s="10">
         <v>1952</v>
@@ -8132,7 +8138,7 @@
     <row r="18" spans="1:24">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>66</v>
@@ -8143,7 +8149,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8168,17 +8174,17 @@
         <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4">
         <v>1954</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -8199,13 +8205,13 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D20" s="10">
         <v>1954</v>
@@ -8232,10 +8238,10 @@
     <row r="21" spans="1:24">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" s="4">
         <v>1954</v>
@@ -8262,13 +8268,13 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D22" s="4">
         <v>1955</v>
@@ -8298,13 +8304,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>640</v>
       </c>
       <c r="D23" s="4">
         <v>1956</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -8316,7 +8322,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -8329,13 +8335,13 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="4">
         <v>1956</v>
@@ -8366,7 +8372,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="4">
         <v>1956</v>
@@ -8393,13 +8399,13 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D26" s="10">
         <v>1957</v>
@@ -8425,13 +8431,13 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4">
         <v>1958</v>
@@ -8439,7 +8445,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -8460,13 +8466,13 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D28" s="10">
         <v>1967</v>
@@ -8489,18 +8495,18 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="4">
         <v>1969</v>
@@ -8508,7 +8514,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -8529,13 +8535,13 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" s="4">
         <v>1971</v>
@@ -8543,7 +8549,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -8567,17 +8573,17 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4">
         <v>1972</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -8598,10 +8604,10 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>65</v>
@@ -8612,7 +8618,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -8629,19 +8635,19 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" s="4">
         <v>1978</v>
@@ -8672,7 +8678,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4">
         <v>1979</v>
@@ -8688,18 +8694,18 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4" t="s">
@@ -8709,13 +8715,13 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4">
         <v>1979</v>
@@ -8723,7 +8729,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -8746,13 +8752,13 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D36" s="4">
         <v>1979</v>
@@ -8780,10 +8786,10 @@
     <row r="37" spans="1:24">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="4">
         <v>1980</v>
@@ -8799,18 +8805,18 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -8822,17 +8828,17 @@
         <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4">
         <v>1982</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -8853,13 +8859,13 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D39" s="4">
         <v>1982</v>
@@ -8889,14 +8895,14 @@
         <v>15</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D40" s="4">
         <v>1984</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -8905,22 +8911,22 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>115</v>
+        <v>639</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -8928,13 +8934,13 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10">
         <v>1984</v>
@@ -8961,10 +8967,10 @@
     <row r="42" spans="1:24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D42" s="4">
         <v>1984</v>
@@ -8992,10 +8998,10 @@
     <row r="43" spans="1:24">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D43" s="10">
         <v>1984</v>
@@ -9026,14 +9032,14 @@
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D44" s="4">
         <v>1985</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -9055,13 +9061,13 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D45" s="10">
         <v>1985</v>
@@ -9091,36 +9097,36 @@
         <v>21</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4">
         <v>1986</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -9132,7 +9138,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D47" s="4">
         <v>1986</v>
@@ -9140,30 +9146,30 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -9175,14 +9181,14 @@
         <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D48" s="4">
         <v>1986</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -9193,18 +9199,18 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -9212,13 +9218,13 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="4">
         <v>1986</v>
@@ -9226,7 +9232,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -9247,13 +9253,13 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" s="10">
         <v>1986</v>
@@ -9279,13 +9285,13 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D51" s="4">
         <v>1986</v>
@@ -9315,40 +9321,40 @@
         <v>4</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D52" s="4">
         <v>1987</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -9357,10 +9363,10 @@
     <row r="53" spans="1:24">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D53" s="10">
         <v>1987</v>
@@ -9383,16 +9389,16 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="4">
         <v>1988</v>
@@ -9400,7 +9406,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -9416,7 +9422,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>63</v>
@@ -9425,13 +9431,13 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D55" s="4">
         <v>1988</v>
@@ -9462,7 +9468,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D56" s="4">
         <v>1988</v>
@@ -9490,10 +9496,10 @@
     <row r="57" spans="1:24">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D57" s="4">
         <v>1990</v>
@@ -9519,13 +9525,13 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D58" s="4">
         <v>1990</v>
@@ -9541,7 +9547,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -9558,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" s="4">
         <v>1991</v>
@@ -9589,14 +9595,14 @@
         <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4">
         <v>1992</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -9607,18 +9613,18 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -9630,14 +9636,14 @@
         <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D61" s="4">
         <v>1992</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -9648,18 +9654,18 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -9671,7 +9677,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="4">
         <v>1993</v>
@@ -9679,7 +9685,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -9696,17 +9702,17 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="X62" s="2"/>
     </row>
     <row r="63" spans="1:24" ht="16" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="4">
         <v>1994</v>
@@ -9733,23 +9739,23 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D64" s="4">
         <v>1995</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -9773,10 +9779,10 @@
     <row r="65" spans="1:24">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="4">
         <v>1996</v>
@@ -9784,7 +9790,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -9800,7 +9806,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V65" s="4"/>
       <c r="X65" s="2"/>
@@ -9811,38 +9817,38 @@
         <v>18</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D66" s="4">
         <v>1997</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P66" s="4"/>
       <c r="Q66" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -9850,13 +9856,13 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4">
         <v>1997</v>
@@ -9887,7 +9893,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D68" s="4">
         <v>1997</v>
@@ -9902,7 +9908,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -9917,17 +9923,17 @@
     <row r="69" spans="1:24">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D69" s="4">
         <v>1998</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -9938,18 +9944,18 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S69" s="4"/>
       <c r="T69" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -9957,13 +9963,13 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D70" s="10">
         <v>1999</v>
@@ -9990,10 +9996,10 @@
     <row r="71" spans="1:24">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D71" s="4">
         <v>1999</v>
@@ -10008,7 +10014,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -10022,13 +10028,13 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" s="10">
         <v>2000</v>
@@ -10055,13 +10061,13 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D73" s="4">
         <v>2000</v>
@@ -10088,10 +10094,10 @@
     <row r="74" spans="1:24">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="4">
         <v>2001</v>
@@ -10099,7 +10105,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -10115,7 +10121,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V74" s="4"/>
       <c r="X74" s="2"/>
@@ -10123,10 +10129,10 @@
     <row r="75" spans="1:24">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D75" s="4">
         <v>2003</v>
@@ -10136,7 +10142,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -10144,18 +10150,18 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -10167,7 +10173,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" s="4">
         <v>2003</v>
@@ -10180,7 +10186,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -10192,24 +10198,24 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D77" s="4">
         <v>2004</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -10231,13 +10237,13 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="4">
         <v>2004</v>
@@ -10245,7 +10251,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -10266,13 +10272,13 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79" s="4">
         <v>2004</v>
@@ -10303,17 +10309,17 @@
         <v>14</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="4">
         <v>2006</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -10338,14 +10344,14 @@
         <v>3</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="4">
         <v>2006</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -10356,18 +10362,18 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S81" s="4"/>
       <c r="T81" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -10376,10 +10382,10 @@
     <row r="82" spans="1:24">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4">
         <v>2007</v>
@@ -10387,7 +10393,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -10409,10 +10415,10 @@
     <row r="83" spans="1:24">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" s="4">
         <v>2007</v>
@@ -10420,7 +10426,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -10436,22 +10442,22 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X83" s="2"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D84" s="4">
         <v>2007</v>
@@ -10474,7 +10480,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X84" s="2"/>
     </row>
@@ -10484,14 +10490,14 @@
         <v>34</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4">
         <v>2008</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -10502,16 +10508,16 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -10523,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D86" s="4">
         <v>2008</v>
@@ -10532,7 +10538,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -10541,18 +10547,18 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P86" s="4"/>
       <c r="Q86" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S86" s="4"/>
       <c r="T86" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
@@ -10560,13 +10566,13 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D87" s="4">
         <v>2008</v>
@@ -10578,7 +10584,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -10595,13 +10601,13 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D88" s="4">
         <v>2008</v>
@@ -10632,14 +10638,14 @@
         <v>8</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D89" s="4">
         <v>2009</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -10649,19 +10655,19 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P89" s="4"/>
       <c r="Q89" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
@@ -10670,40 +10676,34 @@
     <row r="90" spans="1:24">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>54</v>
+        <v>637</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>73</v>
+        <v>638</v>
       </c>
       <c r="D90" s="4">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="M90" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>623</v>
-      </c>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="X90" s="2"/>
@@ -10711,94 +10711,102 @@
     <row r="91" spans="1:24">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>630</v>
+        <v>54</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D91" s="4">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P91" s="4"/>
       <c r="Q91" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="X91" s="2"/>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>134</v>
+        <v>615</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>627</v>
       </c>
       <c r="D92" s="4">
         <v>2010</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="J92" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
+      <c r="Q92" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
+      <c r="T92" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="X92" s="2"/>
     </row>
     <row r="93" spans="1:24">
-      <c r="A93" s="4"/>
+      <c r="A93" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B93" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D93" s="4">
         <v>2010</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -10807,7 +10815,9 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
+      <c r="O93" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -10818,14 +10828,12 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>633</v>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D94" s="4">
         <v>2010</v>
@@ -10848,17 +10856,20 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
+      <c r="X94" s="2"/>
     </row>
     <row r="95" spans="1:24">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="10">
-        <v>2011</v>
+      <c r="A95" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2010</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -10877,26 +10888,22 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="V95" s="4"/>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D96" s="10">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -10912,25 +10919,24 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="X96" s="2"/>
+        <v>353</v>
+      </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="4">
+        <v>200</v>
+      </c>
+      <c r="D97" s="10">
         <v>2012</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -10945,19 +10951,19 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
-      <c r="U97" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="V97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="X97" s="2"/>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D98" s="4">
         <v>2012</v>
@@ -10965,7 +10971,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -10981,7 +10987,7 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="V98" s="4"/>
       <c r="X98" s="2"/>
@@ -10989,10 +10995,10 @@
     <row r="99" spans="1:24">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
       <c r="D99" s="4">
         <v>2012</v>
@@ -11000,7 +11006,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -11016,29 +11022,27 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>303</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="V99" s="4"/>
       <c r="X99" s="2"/>
     </row>
     <row r="100" spans="1:24">
-      <c r="A100" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="D100" s="4">
         <v>2012</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -11052,28 +11056,30 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
+      <c r="U100" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="X100" s="2"/>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>154</v>
+        <v>125</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -11093,28 +11099,28 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="10">
+        <v>362</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="4">
         <v>2012</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -11127,29 +11133,29 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103" spans="1:24">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
-        <v>41</v>
+      <c r="A103" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" s="4">
-        <v>2013</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>631</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D103" s="10">
+        <v>2012</v>
+      </c>
+      <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
+      <c r="M103" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -11164,18 +11170,20 @@
     <row r="104" spans="1:24">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D104" s="4">
         <v>2013</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -11197,10 +11205,10 @@
     <row r="105" spans="1:24">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D105" s="4">
         <v>2013</v>
@@ -11208,7 +11216,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -11229,18 +11237,20 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" s="4"/>
-      <c r="B106" s="10" t="s">
-        <v>313</v>
+      <c r="B106" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" s="10">
+        <v>90</v>
+      </c>
+      <c r="D106" s="4">
         <v>2013</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -11256,16 +11266,17 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
+      <c r="X106" s="2"/>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
-        <v>102</v>
+      <c r="B107" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" s="4">
+        <v>189</v>
+      </c>
+      <c r="D107" s="10">
         <v>2013</v>
       </c>
       <c r="E107" s="4"/>
@@ -11286,23 +11297,20 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
-      <c r="X107" s="2"/>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="D108" s="4">
         <v>2013</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -11317,29 +11325,25 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
-      <c r="U108" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="V108" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
       <c r="X108" s="2"/>
     </row>
     <row r="109" spans="1:24">
-      <c r="A109" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D109" s="10">
+        <v>180</v>
+      </c>
+      <c r="D109" s="4">
         <v>2013</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -11354,20 +11358,25 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
+      <c r="U109" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="V109" s="4" t="s">
-        <v>357</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="X109" s="2"/>
     </row>
     <row r="110" spans="1:24">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B110" s="4" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="4">
+        <v>204</v>
+      </c>
+      <c r="D110" s="10">
         <v>2013</v>
       </c>
       <c r="E110" s="4"/>
@@ -11384,55 +11393,42 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-      <c r="S110" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="X110" s="2"/>
+      <c r="V110" s="4" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="D111" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="F111" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
-      <c r="O111" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="O111" s="4"/>
       <c r="P111" s="4"/>
-      <c r="Q111" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="R111" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="X111" s="2"/>
@@ -11440,54 +11436,64 @@
     <row r="112" spans="1:24">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="D112" s="4">
         <v>2014</v>
       </c>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G112" s="4" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
+      <c r="M112" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
+      <c r="O112" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
+      <c r="Q112" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4" t="s">
-        <v>621</v>
-      </c>
+      <c r="T112" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="X112" s="2"/>
     </row>
     <row r="113" spans="1:24">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>128</v>
+        <v>363</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D113" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>631</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -11501,26 +11507,26 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="U113" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="V113" s="4"/>
       <c r="X113" s="2"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" s="10">
+        <v>129</v>
+      </c>
+      <c r="D114" s="4">
         <v>2015</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -11534,47 +11540,45 @@
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-      <c r="S114" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
+      <c r="V114" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="X114" s="2"/>
     </row>
     <row r="115" spans="1:24">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4" t="s">
-        <v>53</v>
+      <c r="A115" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="4">
-        <v>2016</v>
+        <v>187</v>
+      </c>
+      <c r="D115" s="10">
+        <v>2015</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
-      <c r="O115" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="S115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="X115" s="2"/>
@@ -11582,54 +11586,56 @@
     <row r="116" spans="1:24">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D116" s="4">
         <v>2016</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>631</v>
-      </c>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
+      <c r="O116" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
+      <c r="T116" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="U116" s="4"/>
-      <c r="V116" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="V116" s="4"/>
       <c r="X116" s="2"/>
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D117" s="4">
         <v>2016</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="F117" s="4"/>
-      <c r="G117" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -11645,17 +11651,17 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="X117" s="2"/>
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>332</v>
+        <v>62</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D118" s="4">
         <v>2016</v>
@@ -11663,7 +11669,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -11679,32 +11685,34 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
+      <c r="V118" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="X118" s="2"/>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D119" s="4">
         <v>2016</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
@@ -11718,10 +11726,10 @@
     <row r="120" spans="1:24">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D120" s="4">
         <v>2016</v>
@@ -11735,10 +11743,10 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="N120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
@@ -11751,21 +11759,17 @@
     <row r="121" spans="1:24">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D121" s="4">
-        <v>2017</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>631</v>
-      </c>
+        <v>2016</v>
+      </c>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -11773,7 +11777,9 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
+      <c r="O121" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
@@ -11784,21 +11790,23 @@
       <c r="X121" s="2"/>
     </row>
     <row r="122" spans="1:24">
-      <c r="A122" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>348</v>
+        <v>47</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="10">
+        <v>81</v>
+      </c>
+      <c r="D122" s="4">
         <v>2017</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -11813,19 +11821,20 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
-      <c r="V122" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="V122" s="4"/>
+      <c r="X122" s="2"/>
     </row>
     <row r="123" spans="1:24">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B123" s="4" t="s">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="4">
+        <v>214</v>
+      </c>
+      <c r="D123" s="10">
         <v>2017</v>
       </c>
       <c r="E123" s="4"/>
@@ -11838,9 +11847,7 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
-      <c r="O123" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
@@ -11848,17 +11855,16 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X123" s="2"/>
+        <v>355</v>
+      </c>
     </row>
     <row r="124" spans="1:24">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D124" s="4">
         <v>2017</v>
@@ -11873,32 +11879,34 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
+      <c r="O124" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
+      <c r="V124" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="X124" s="2"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="D125" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4" t="s">
-        <v>626</v>
-      </c>
+      <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -11919,24 +11927,22 @@
     <row r="126" spans="1:24">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D126" s="4">
         <v>2019</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>631</v>
-      </c>
+      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>623</v>
+      </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -11948,35 +11954,33 @@
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
-      <c r="V126" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="V126" s="4"/>
       <c r="X126" s="2"/>
     </row>
     <row r="127" spans="1:24">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>598</v>
+        <v>104</v>
       </c>
       <c r="D127" s="4">
         <v>2019</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
@@ -11985,35 +11989,35 @@
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
-      <c r="V127" s="4" t="s">
-        <v>597</v>
+      <c r="V127" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="X127" s="2"/>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>338</v>
+        <v>593</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="D128" s="4">
         <v>2019</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+      <c r="J128" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="M128" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
@@ -12022,23 +12026,29 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
+      <c r="V128" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="X128" s="2"/>
     </row>
     <row r="129" spans="1:24">
-      <c r="A129" s="4"/>
+      <c r="A129" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B129" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D129" s="10">
+        <v>335</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D129" s="4">
         <v>2019</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -12046,32 +12056,25 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
-      <c r="O129" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
-      <c r="T129" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-      <c r="V129" s="4" t="s">
-        <v>599</v>
-      </c>
+      <c r="V129" s="4"/>
+      <c r="X129" s="2"/>
     </row>
     <row r="130" spans="1:24">
-      <c r="A130" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D130" s="4">
+        <v>593</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D130" s="10">
         <v>2019</v>
       </c>
       <c r="E130" s="4"/>
@@ -12084,23 +12087,30 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
+      <c r="O130" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
+      <c r="T130" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="X130" s="2"/>
+      <c r="V130" s="4" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="131" spans="1:24">
-      <c r="A131" s="4"/>
+      <c r="A131" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B131" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D131" s="4">
         <v>2019</v>
@@ -12108,9 +12118,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -12127,21 +12135,23 @@
       <c r="V131" s="4"/>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" ht="46" customHeight="1">
+    <row r="132" spans="1:24">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D132" s="10">
-        <v>2020</v>
+        <v>144</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2019</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -12155,21 +12165,18 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
-      <c r="V132" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
-      <c r="A133" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="V132" s="4"/>
+      <c r="X132" s="2"/>
+    </row>
+    <row r="133" spans="1:24" ht="46" customHeight="1">
+      <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="4">
+        <v>212</v>
+      </c>
+      <c r="D133" s="10">
         <v>2020</v>
       </c>
       <c r="E133" s="4"/>
@@ -12179,9 +12186,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -12191,16 +12196,19 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="X133" s="2"/>
+      <c r="V133" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="134" spans="1:24">
-      <c r="A134" s="4"/>
+      <c r="A134" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B134" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D134" s="4">
         <v>2020</v>
@@ -12213,7 +12221,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -12230,13 +12238,13 @@
     <row r="135" spans="1:24">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>616</v>
+        <v>51</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D135" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -12245,7 +12253,9 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="L135" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -12254,22 +12264,19 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
-      <c r="U135" s="4" t="s">
-        <v>621</v>
-      </c>
+      <c r="U135" s="4"/>
       <c r="V135" s="4"/>
+      <c r="X135" s="2"/>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="10">
+        <v>612</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D136" s="4">
         <v>2021</v>
       </c>
       <c r="E136" s="4"/>
@@ -12288,18 +12295,22 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
+      <c r="U136" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="V136" s="4"/>
     </row>
     <row r="137" spans="1:24">
-      <c r="A137" s="4"/>
+      <c r="A137" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B137" s="4" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" s="4">
+        <v>210</v>
+      </c>
+      <c r="D137" s="10">
         <v>2021</v>
       </c>
       <c r="E137" s="4"/>
@@ -12320,15 +12331,14 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="X137" s="2"/>
     </row>
     <row r="138" spans="1:24">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D138" s="4">
         <v>2021</v>
@@ -12351,17 +12361,18 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
-    </row>
-    <row r="139" spans="1:24" ht="21">
+      <c r="X138" s="2"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>608</v>
+        <v>52</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D139" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -12380,20 +12391,18 @@
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
-      <c r="V139" s="9" t="s">
-        <v>354</v>
-      </c>
+      <c r="V139" s="4"/>
     </row>
     <row r="140" spans="1:24" ht="21">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>635</v>
-      </c>
       <c r="D140" s="4">
-        <v>1953</v>
+        <v>2022</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -12412,18 +12421,20 @@
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
+      <c r="V140" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="141" spans="1:24" ht="21">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D141" s="4">
-        <v>1936</v>
+        <v>1953</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -12442,54 +12453,84 @@
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
-      <c r="V141" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="D142" s="20">
+      <c r="V141" s="4"/>
+    </row>
+    <row r="142" spans="1:24" ht="21">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1936</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="20">
         <v>1999</v>
       </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19" t="s">
-        <v>639</v>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19"/>
+      <c r="U143" s="19"/>
+      <c r="V143" s="19" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X141">
-    <sortCondition ref="D2:D141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X142">
+    <sortCondition ref="D2:D142"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="V126" r:id="rId1" xr:uid="{68A0795A-C868-D44F-B599-7005E3FEB4D6}"/>
-    <hyperlink ref="V141" r:id="rId2" display="https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.limitedruns.com%2Fmedia%2Fcache%2Ff8%2Ff5%2Ff8f5ee3e97fa99cd2b56a5398e187362.jpg&amp;imgrefurl=https%3A%2F%2Fwww.limitedruns.com%2Foriginal%2Fmovie-posters%2Fadventure%2Fjaws-of-the-jungle%2F&amp;tbnid=nZg0Vg5xoJQGKM&amp;vet=12ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg..i&amp;docid=ZbY-JK7XketlrM&amp;w=424&amp;h=627&amp;q=jungle%20movie%20%20posters&amp;ved=2ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg" xr:uid="{A33A28C5-9627-7E48-8568-2968087FE2FB}"/>
-    <hyperlink ref="V139" r:id="rId3" display="https://www.imdb.com/title/tt13320622/" xr:uid="{DA4F55DC-6D58-524B-8943-43F24260F365}"/>
+    <hyperlink ref="V127" r:id="rId1" xr:uid="{68A0795A-C868-D44F-B599-7005E3FEB4D6}"/>
+    <hyperlink ref="V142" r:id="rId2" display="https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.limitedruns.com%2Fmedia%2Fcache%2Ff8%2Ff5%2Ff8f5ee3e97fa99cd2b56a5398e187362.jpg&amp;imgrefurl=https%3A%2F%2Fwww.limitedruns.com%2Foriginal%2Fmovie-posters%2Fadventure%2Fjaws-of-the-jungle%2F&amp;tbnid=nZg0Vg5xoJQGKM&amp;vet=12ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg..i&amp;docid=ZbY-JK7XketlrM&amp;w=424&amp;h=627&amp;q=jungle%20movie%20%20posters&amp;ved=2ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg" xr:uid="{A33A28C5-9627-7E48-8568-2968087FE2FB}"/>
+    <hyperlink ref="V140" r:id="rId3" display="https://www.imdb.com/title/tt13320622/" xr:uid="{DA4F55DC-6D58-524B-8943-43F24260F365}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12512,1355 +12553,1355 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" t="s">
         <v>535</v>
-      </c>
-      <c r="B1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B31" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B59" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C59" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C69" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C73" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B74" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C74" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D81" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="22" customHeight="1">
       <c r="A82" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14011,7 +14052,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>59</v>
@@ -14042,7 +14083,7 @@
         <v>1998</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>59</v>
@@ -14056,7 +14097,7 @@
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
